--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>6589757299.347855</v>
+        <v>12118518202.52875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1888097229503629</v>
+        <v>0.1031024593204209</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3300591912430767</v>
+        <v>0.0754736274280525</v>
       </c>
       <c r="I2" t="n">
-        <v>0.481174202815766</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.116542824737929</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7426603713304969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.736664601872009</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>4220852033.718748</v>
+        <v>9158650860.968645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3444236941703865</v>
+        <v>0.1718870403400772</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.898402791293724</v>
+        <v>0.2454457640705791</v>
       </c>
       <c r="I3" t="n">
-        <v>3.794155137437614</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9790681606622558</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6332798307965799</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.843503565535725</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9096177207763447</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.34885084999117</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4556990354.168143</v>
+        <v>7085991727.858974</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3259155746602661</v>
+        <v>0.1848287509073516</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8308062176051276</v>
+        <v>0.2774257538345669</v>
       </c>
       <c r="I4" t="n">
-        <v>3.876190924193022</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.992412291262354</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7546982568676325</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.101552846090295</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6753890783.906137</v>
+        <v>11253816961.19092</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2148601608213639</v>
+        <v>0.09566259107577256</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4252023170589887</v>
+        <v>0.05708912492566195</v>
       </c>
       <c r="I5" t="n">
-        <v>3.787318821874663</v>
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9764767910094498</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1421621167826655</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.073867171923986</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8133363979098016</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.19286078627205</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>6536536992.722819</v>
+        <v>3827810565.856197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1871411622640337</v>
+        <v>0.3517327821835006</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3239651639527477</v>
+        <v>0.6898588077213271</v>
       </c>
       <c r="I6" t="n">
-        <v>3.192559367897956</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.068520926570411</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7618117236438883</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.167713546307354</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10787075489.16594</v>
+        <v>5573780835.766994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.109029190644047</v>
+        <v>0.2876084882478889</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03867947392439128</v>
+        <v>0.5314026088267716</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3862570274283366</v>
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9816583840094778</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3916384363912609</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.363728094779668</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8979600380194527</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.59547266560938</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>4585329072.279019</v>
+        <v>3896683694.715392</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.333612645000349</v>
+        <v>0.3092166299343436</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8589179651084448</v>
+        <v>0.5847980349073869</v>
       </c>
       <c r="I8" t="n">
-        <v>3.992408288763183</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.972745915110166</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7334611204311847</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.696476493513528</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>8585955090.460523</v>
+        <v>8723265151.391027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1354548384829276</v>
+        <v>0.1528406493281239</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1351929663098836</v>
+        <v>0.1983806263952391</v>
       </c>
       <c r="I9" t="n">
-        <v>3.035324109950091</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.277961136424311</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7592890293492011</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.90781945055971</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>4758827191.930961</v>
+        <v>9153252363.538811</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3043864825468146</v>
+        <v>0.1493809550632087</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7521762487041954</v>
+        <v>0.1898314484018528</v>
       </c>
       <c r="I10" t="n">
-        <v>3.780482506311713</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.951700077854134</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7658079499633786</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.364458921413439</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>3886653518.922025</v>
+        <v>3493705418.914897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2769913203630741</v>
+        <v>0.4341026583950075</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6521218321411473</v>
+        <v>0.8934012826060598</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3747210518605</v>
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9716685886748903</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3091080233141898</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.519331758053335</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.892063635478284</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.32194095151234</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>6102233381.294096</v>
+        <v>10437641347.36814</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2077575013578294</v>
+        <v>0.1219646755079388</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3992615161283872</v>
+        <v>0.1220836545544733</v>
       </c>
       <c r="I12" t="n">
-        <v>3.308776732468117</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.024173913738093</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7474248075257166</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.92432223677624</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6963409301.761236</v>
+        <v>9753066290.766016</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1779259865834154</v>
+        <v>0.1469082939953509</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2903088920874368</v>
+        <v>0.183721307456508</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4717331940514008</v>
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9779566724333075</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2861305164984739</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.826072460418581</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9324848994058443</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13.82362552769831</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7338790475.017541</v>
+        <v>6091157926.984628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1888127634542786</v>
+        <v>0.2644693947046409</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3300702959718352</v>
+        <v>0.4742240796969186</v>
       </c>
       <c r="I14" t="n">
-        <v>3.616410932800897</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.129205991881967</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5359620199207058</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.590034406532148</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>5157454570.065391</v>
+        <v>4853456295.987693</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.284923070099165</v>
+        <v>0.2023859266667415</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6810906911990323</v>
+        <v>0.3208109229087099</v>
       </c>
       <c r="I15" t="n">
-        <v>3.835173030815318</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.666114722145897</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6415446852687713</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.164778983229528</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7892728336.101753</v>
+        <v>12035142402.55678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1981286778676022</v>
+        <v>0.1107813655546574</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3640944924750265</v>
+        <v>0.09444881169700682</v>
       </c>
       <c r="I16" t="n">
-        <v>4.081280391081542</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.059676885665663</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6064836451221708</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.069996016777752</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>5694967324.558364</v>
+        <v>12180525867.0679</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2037570549344612</v>
+        <v>0.1178459563786909</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3846508220869626</v>
+        <v>0.1119059740299871</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3977971468471246</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.273446828684042</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7784707232543482</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.295967636402922</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11079155596.00436</v>
+        <v>12275481434.67645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1101740768439263</v>
+        <v>0.08940785058740369</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04286090274717769</v>
+        <v>0.04163316678514831</v>
       </c>
       <c r="I18" t="n">
-        <v>3.185723052335006</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.024208100032448</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7100918204313781</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.177628308595114</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8532804953.971526</v>
+        <v>7486230586.094496</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1541033443390704</v>
+        <v>0.1749471893682688</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2033022682623423</v>
+        <v>0.253007634202748</v>
       </c>
       <c r="I19" t="n">
-        <v>3.431830412601229</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.364647745202316</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7546982568676325</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.729317392150334</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10627734999.44951</v>
+        <v>3518970809.751235</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1441834172642968</v>
+        <v>0.420564827050845</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.167072056914897</v>
+        <v>0.8599482312831783</v>
       </c>
       <c r="I20" t="n">
-        <v>3.999244604326134</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.6093024758399</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7864972465391907</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.120642454943914</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7485791367.794951</v>
+        <v>4156186300.352085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.188954050480925</v>
+        <v>0.2376000397086013</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3305863137608236</v>
+        <v>0.4078277796659814</v>
       </c>
       <c r="I21" t="n">
-        <v>3.691610403993354</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.097624762650625</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.3614908414817515</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-10.32744159228565</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8789301551.499901</v>
+        <v>12721394850.45074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1633151066201664</v>
+        <v>0.1243662018669237</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2369460734849878</v>
+        <v>0.128018016011489</v>
       </c>
       <c r="I22" t="n">
-        <v>3.74630092849696</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.832315151416175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2513960390425188</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.195605629434201</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7383735873.581616</v>
+        <v>7483860550.075939</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1695711278730588</v>
+        <v>0.1883027897928564</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2597947265524879</v>
+        <v>0.2860103785192724</v>
       </c>
       <c r="I23" t="n">
-        <v>3.267758839090413</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.335315460450735</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7736575599032622</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.137835737614511</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5494923303.271609</v>
+        <v>10450866465.84066</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2502636841502838</v>
+        <v>0.1426133340112591</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5545053979165917</v>
+        <v>0.1731081218490879</v>
       </c>
       <c r="I24" t="n">
-        <v>3.589065670549094</v>
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9791981121780335</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4236982914044165</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.963640235324524</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9461853806673164</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13.9600673780218</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9090061939.074739</v>
+        <v>11812924798.76897</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1455206750917524</v>
+        <v>0.1093174884288244</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1719560780724666</v>
+        <v>0.09083145560976337</v>
       </c>
       <c r="I25" t="n">
-        <v>0.443549248535227</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.196241735886534</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7510820758952512</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.82539978201849</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>5707110139.873206</v>
+        <v>5578547899.460496</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1918492885480436</v>
+        <v>0.2775022313870808</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3411604930145827</v>
+        <v>0.5064292492943662</v>
       </c>
       <c r="I26" t="n">
-        <v>2.857579905313374</v>
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9788505655938219</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3915325255367107</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.012669228964258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8375027057689738</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.73738488641522</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>11411935370.58208</v>
+        <v>6319865889.780391</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1283076851078692</v>
+        <v>0.2432934427432019</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1090896617836374</v>
+        <v>0.4218966285884101</v>
       </c>
       <c r="I27" t="n">
-        <v>3.821500399689417</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.302381005206565</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5691930976306356</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.081480947406147</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8794332853.601057</v>
+        <v>6838950060.730215</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1310538979120022</v>
+        <v>0.2213800958561679</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1191195611517301</v>
+        <v>0.367747016332814</v>
       </c>
       <c r="I28" t="n">
-        <v>3.007978847698288</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.97971784139281</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.185616681071721</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8512680185145401</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.83974368921908</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4745822967.000196</v>
+        <v>3605463839.924296</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2875585961569526</v>
+        <v>0.4489805173122994</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6907163331382925</v>
+        <v>0.9301656479820083</v>
       </c>
       <c r="I29" t="n">
-        <v>3.561720408297292</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9837499867141609</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.674837652433502</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.812626334847826</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.57768904452302</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8108744903.645219</v>
+        <v>9146921002.242529</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1899432450153433</v>
+        <v>0.1365977720474109</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.334199115223533</v>
+        <v>0.1582431927480646</v>
       </c>
       <c r="I30" t="n">
-        <v>0.415261645524007</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.952326959414769</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7426603713304969</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.900880467195169</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>10848057454.01663</v>
+        <v>7234195794.407892</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1357014549600249</v>
+        <v>0.1357816788369629</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1360936752586139</v>
+        <v>0.1562265619185526</v>
       </c>
       <c r="I31" t="n">
-        <v>3.842009346378268</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.197705753219657</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5326072985629979</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.454440218040301</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>10103022402.99086</v>
+        <v>12778882909.304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1161520457138257</v>
+        <v>0.08137627031881441</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06469403457893041</v>
+        <v>0.02178649710087755</v>
       </c>
       <c r="I32" t="n">
-        <v>3.062669372201894</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.927094908600272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.4474552697208785</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-11.87620030301784</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5616756483.487402</v>
+        <v>6158487229.78346</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1954018147709611</v>
+        <v>0.2207463228023614</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3541352633837067</v>
+        <v>0.3661809130215042</v>
       </c>
       <c r="I33" t="n">
-        <v>2.864416220876325</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.061503042770997</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7643150750528896</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.224798458286795</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>7188082345.943577</v>
+        <v>12192281918.17123</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1956867440164745</v>
+        <v>0.09109216531031351</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3551759007499096</v>
+        <v>0.04579524159882838</v>
       </c>
       <c r="I34" t="n">
-        <v>3.671101457304502</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.533024635168622</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4315110306519846</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.097195977871069</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9396533916.331242</v>
+        <v>6427985062.687754</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1321328556950246</v>
+        <v>0.2489811775217163</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1230602018660434</v>
+        <v>0.4359514708020137</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4720576065988116</v>
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9808604502350959</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3198618817481273</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.530085616487272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9167861443221623</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.80563726995597</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>8381105677.034406</v>
+        <v>12735940141.42515</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1843957300568059</v>
+        <v>0.09522481705573488</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3139381155321104</v>
+        <v>0.05600735071915586</v>
       </c>
       <c r="I36" t="n">
-        <v>4.033426182140887</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.008153080361934</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7351041067269768</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.693929054177602</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>9813639185.022379</v>
+        <v>11055677186.27996</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1225131663526978</v>
+        <v>0.08955845972318602</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08792653854954963</v>
+        <v>0.04200533386427163</v>
       </c>
       <c r="I37" t="n">
-        <v>3.137868843394351</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.472185343315256</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.308640912100434</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.700632898693425</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>9303418438.863804</v>
+        <v>7499439523.607497</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.115154501223406</v>
+        <v>0.1680027668779614</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06105073685668286</v>
+        <v>0.2358474173208763</v>
       </c>
       <c r="I38" t="n">
-        <v>2.796053065246818</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.048673359553169</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.744786681053228</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.847060261511391</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9871423764.080212</v>
+        <v>3144972618.760561</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1180810973024426</v>
+        <v>0.4772411883800474</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07173944390794119</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4247522141570759</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.743015690971255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7902091839497846</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.061167988024437</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>5201404381.248751</v>
+        <v>8532743289.467231</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.267911390435951</v>
+        <v>0.163006906784236</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6189595137289252</v>
+        <v>0.2235022521412705</v>
       </c>
       <c r="I40" t="n">
-        <v>3.636919879489749</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.264367987291831</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7702463099690642</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.140558212089452</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9640120173.715607</v>
+        <v>7317964899.871188</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1328698903041068</v>
+        <v>0.1603569757516404</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1257520482330735</v>
+        <v>0.2169540631011004</v>
       </c>
       <c r="I41" t="n">
-        <v>3.342958310282871</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.113998228106258</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7268017269668845</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.422036311231432</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5989432550.749495</v>
+        <v>12057578973.6519</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2033608926521064</v>
+        <v>0.09384773531010737</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3832039320937792</v>
+        <v>0.05260447287697143</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4534360964002359</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.065380304583384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7176948453285619</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.288516601987853</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>10797446452.30228</v>
+        <v>10178656268.99088</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1181430197996492</v>
+        <v>0.09727506203509538</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07196560133269288</v>
+        <v>0.06107366812076847</v>
       </c>
       <c r="I43" t="n">
-        <v>3.329285679156969</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.667557803610833</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5955977227394625</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.244396651178418</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5519409843.507732</v>
+        <v>12836765816.34432</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2728822995037458</v>
+        <v>0.120187649449491</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6371145953900723</v>
+        <v>0.1176924827024923</v>
       </c>
       <c r="I44" t="n">
-        <v>3.930881448696627</v>
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9822099165854272</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3987210068008965</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.885349619249793</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8127988007323248</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.3706263953967</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>5108051307.509994</v>
+        <v>11133793316.91506</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3066522095612164</v>
+        <v>0.08845957635154775</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7604512862088705</v>
+        <v>0.0392899061938621</v>
       </c>
       <c r="I45" t="n">
-        <v>4.088116706644492</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.165801258695417</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5337629093601842</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.509456928508268</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7966545218.259118</v>
+        <v>6324838032.479146</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1348074818603344</v>
+        <v>0.2460011864351453</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1328286477945428</v>
+        <v>0.4285876772795177</v>
       </c>
       <c r="I46" t="n">
-        <v>2.802889380809769</v>
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9767472813193822</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3644399663418195</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.88106387465204</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9235900091389126</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.59073630812621</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>4772397481.640537</v>
+        <v>8772467645.951792</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2607096862292987</v>
+        <v>0.1251101120340377</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5926569750608423</v>
+        <v>0.1298562768353549</v>
       </c>
       <c r="I47" t="n">
-        <v>3.247249892401562</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.111714531854302</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7100918204313781</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.09012187677326</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5308061397.500187</v>
+        <v>7211850813.325543</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2886822580314636</v>
+        <v>0.2117493011888606</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.694820245081368</v>
+        <v>0.3439485614625303</v>
       </c>
       <c r="I48" t="n">
-        <v>3.999244604326134</v>
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2451638856773953</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.761787793987616</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6633239181107077</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.504690568226538</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>5238621680.509897</v>
+        <v>4135406236.547297</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2200066487503673</v>
+        <v>0.2729978689935382</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4439986594070121</v>
+        <v>0.4952986137813885</v>
       </c>
       <c r="I49" t="n">
-        <v>3.007978847698288</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.202621519045778</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7171166483067872</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.139711447089967</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>7851402032.12999</v>
+        <v>4277162269.846984</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1764853339988868</v>
+        <v>0.3190672001436182</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2850472457847693</v>
+        <v>0.6091395725136007</v>
       </c>
       <c r="I50" t="n">
-        <v>3.616410932800897</v>
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9673019014484747</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.154641658625708</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.694583602545815</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9125642925783286</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.55670224902076</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6680887101.998452</v>
+        <v>9156155670.583906</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1870184319723428</v>
+        <v>0.1470449507892803</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3235169202939809</v>
+        <v>0.1840589971960771</v>
       </c>
       <c r="I51" t="n">
-        <v>3.260922523527463</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.970422341212936</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7618117236438883</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.265812131664829</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>4029628043.378761</v>
+        <v>11026675921.16754</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3477674948938902</v>
+        <v>0.1016715216820569</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.910615240639683</v>
+        <v>0.07193766741798231</v>
       </c>
       <c r="I52" t="n">
-        <v>3.657428826178601</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.093393900533242</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6787385363584999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.481376826636756</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>11309191894.59293</v>
+        <v>10628052962.02385</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1053852884545911</v>
+        <v>0.1301308833275361</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02537097422895186</v>
+        <v>0.1422629995586568</v>
       </c>
       <c r="I53" t="n">
-        <v>3.110523581142548</v>
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9747974593108572</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2219097955997715</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.153614850741092</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8998895171296606</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13.84417549185212</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>6136170269.215477</v>
+        <v>6239401317.314253</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2360629849642678</v>
+        <v>0.2552471044907125</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5026406685780853</v>
+        <v>0.4514350716203711</v>
       </c>
       <c r="I54" t="n">
-        <v>3.780482506311713</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.052059932175145</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5278271155860391</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.504482379545637</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>4464031023.421378</v>
+        <v>4582007558.200766</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3327024660464163</v>
+        <v>0.288692659974447</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8555937495556071</v>
+        <v>0.5340816828593348</v>
       </c>
       <c r="I55" t="n">
-        <v>3.876190924193022</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.834217495614767</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6030383755518471</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.226550015422175</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9506724059.03294</v>
+        <v>14839389766.74043</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1614607230070526</v>
+        <v>0.08437465688826803</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2301733714564414</v>
+        <v>0.02919574731561173</v>
       </c>
       <c r="I56" t="n">
-        <v>4.006080919889084</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.13402244441537</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7431932803658119</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.729843162900869</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5440588320.780257</v>
+        <v>9730344591.496649</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2007660873416996</v>
+        <v>0.1012184749202712</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3737270131514434</v>
+        <v>0.07081815305941283</v>
       </c>
       <c r="I57" t="n">
-        <v>2.850743589750423</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.804017321727256</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6422941294334021</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.041865266940787</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4965021705.390749</v>
+        <v>9815401911.793188</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2294923804185718</v>
+        <v>0.1649227443305235</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.478643073678782</v>
+        <v>0.2282364381517866</v>
       </c>
       <c r="I58" t="n">
-        <v>2.973797269883535</v>
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4953970830479411</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.467486741436348</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5981881351415115</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.496275961393883</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>6550432314.607001</v>
+        <v>4806959471.66834</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2079378481573883</v>
+        <v>0.3285844574536863</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3999201905938951</v>
+        <v>0.6326574675998077</v>
       </c>
       <c r="I59" t="n">
-        <v>3.554884092734341</v>
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9763688285717061</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3858516264320159</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.59607536117116</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9098372650825745</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.60066994048033</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6300413447.559793</v>
+        <v>7618939100.987241</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2436288590861453</v>
+        <v>0.1333943356849128</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.530273252607948</v>
+        <v>0.150327248286957</v>
       </c>
       <c r="I60" t="n">
-        <v>4.006080919889084</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.904803862077475</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.691151554116841</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.918227220259345</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10599460054.34151</v>
+        <v>8432292826.052055</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09983844031437716</v>
+        <v>0.1189743277060391</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005112409935350714</v>
+        <v>0.1146942687697737</v>
       </c>
       <c r="I61" t="n">
-        <v>2.761871487432065</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.943151442484743</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6879808765648144</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.816466088811546</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>8145448243.641143</v>
+        <v>7334852078.034957</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1849068590148856</v>
+        <v>0.2078412712050789</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.315804894394237</v>
+        <v>0.3342915104700032</v>
       </c>
       <c r="I62" t="n">
-        <v>3.930881448696627</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.576138885159493</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7943370605061361</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.310602324963229</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>3947648692.398755</v>
+        <v>10830523518.26132</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3722412768971811</v>
+        <v>0.14414413461803</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.1768908511475652</v>
       </c>
       <c r="I63" t="n">
-        <v>3.835173030815318</v>
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9812786561791267</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5036737355505674</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.020297643860788</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9265638617708131</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.51097959155547</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>7844590325.627331</v>
+        <v>5513514778.167716</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1743012092719648</v>
+        <v>0.2261406181293222</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2770702415317041</v>
+        <v>0.3795106431559701</v>
       </c>
       <c r="I64" t="n">
-        <v>3.568556723860242</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.248171055819233</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7421265685355575</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.594360314891917</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9824895126.179285</v>
+        <v>12060493767.79766</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1229060233714259</v>
+        <v>0.08318286044628478</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08936135684111189</v>
+        <v>0.02625072410424746</v>
       </c>
       <c r="I65" t="n">
-        <v>3.151541474520252</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.591465781318765</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6000220466351615</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.408975151384465</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7608985462.60456</v>
+        <v>7483709574.504562</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1617972995283644</v>
+        <v>0.1627556946022501</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2314026384066717</v>
+        <v>0.2228814869830068</v>
       </c>
       <c r="I66" t="n">
-        <v>3.213068314586808</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.423934046434997</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7361946887880763</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.299959729326527</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>6620659956.677056</v>
+        <v>6096193572.185724</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1815982119407082</v>
+        <v>0.1654253819303224</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3037208355228376</v>
+        <v>0.2294784953908977</v>
       </c>
       <c r="I67" t="n">
-        <v>3.137868843394351</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.158339219092245</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.336668546592253</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-9.891710150937305</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8849478890.809996</v>
+        <v>5393808449.687576</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1320131902018775</v>
+        <v>0.2491276956781499</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.122623151666477</v>
+        <v>0.436313528747803</v>
       </c>
       <c r="I68" t="n">
-        <v>3.048996741075992</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.796703413320325</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.4518263931937839</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-11.833231277196</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>10251044834.61074</v>
+        <v>14933839258.68542</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1390051631799451</v>
+        <v>0.08243782986240415</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1481596961210436</v>
+        <v>0.02440969464199003</v>
       </c>
       <c r="I69" t="n">
-        <v>3.718955666245157</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.944551752417817</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7389047767940272</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.833543783462727</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>10003125351.37097</v>
+        <v>3814621203.474223</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1327615803412869</v>
+        <v>0.2767284387342532</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1253564714496532</v>
+        <v>0.5045171464862992</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4999908509557044</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.929305328625264</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.70046547028294</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.080004077033537</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>11096105449.01834</v>
+        <v>7203784935.014382</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09843864903939187</v>
+        <v>0.2083502608059195</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.3355492640057697</v>
       </c>
       <c r="I71" t="n">
-        <v>2.850743589750423</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.741517094653339</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7902091839497846</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.062666584342352</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6121133947.631706</v>
+        <v>3811696276.929546</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1998412615154881</v>
+        <v>0.3655893278890849</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3703493033264966</v>
+        <v>0.7240994274234367</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4029270926261835</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.182160720745664</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7707357912865045</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.232555104984426</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>10288107731.07919</v>
+        <v>4997400467.827236</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1295932687380738</v>
+        <v>0.2992899407660012</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1137849550328763</v>
+        <v>0.5602684013366419</v>
       </c>
       <c r="I73" t="n">
-        <v>3.479684621541884</v>
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9783397814417731</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.510031463604253</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.049973407524361</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9470744758758954</v>
+      </c>
+      <c r="N73" t="n">
+        <v>13.89151610999355</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>5334798248.475273</v>
+        <v>9180945893.746117</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2224233447514411</v>
+        <v>0.1106991950243711</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.452825075793085</v>
+        <v>0.09424576182166015</v>
       </c>
       <c r="I74" t="n">
-        <v>3.096850950016647</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.709177981626727</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6043715324989317</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.378252668351907</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>9137451576.123528</v>
+        <v>7587305825.66128</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.162825871919005</v>
+        <v>0.1367123540073719</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2351592582707253</v>
+        <v>0.1585263338280356</v>
       </c>
       <c r="I75" t="n">
-        <v>3.883027239755972</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.036103790194323</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6961551450031953</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.886999109869583</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>7184169174.983052</v>
+        <v>7563702237.689398</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1618849906889538</v>
+        <v>0.208825271059654</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2317229098418858</v>
+        <v>0.3367230518890063</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4866792949974536</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9772299526290992</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.011270649966649</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8686856561134909</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.36244247230317</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>8943934381.600224</v>
+        <v>6688428344.133868</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1522912335763693</v>
+        <v>0.1797582254214453</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1966839579236911</v>
+        <v>0.2648960845691019</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5518577582306332</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.000849290783451</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7329115453917889</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.657381617052328</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10249444235.92882</v>
+        <v>5363689217.575173</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1221596401891674</v>
+        <v>0.2236670640925676</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.08663536699909256</v>
+        <v>0.3733982956138984</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4157994106271335</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.926697363179536</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7323610071001095</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.720522778822654</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6877788151.451374</v>
+        <v>4243476471.377859</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1618602849471425</v>
+        <v>0.3290073314691137</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2316326779036296</v>
+        <v>0.6337024227171798</v>
       </c>
       <c r="I79" t="n">
-        <v>2.905434114254029</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.228583436218997</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7712245483337367</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.195907530455736</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>4225541851.549422</v>
+        <v>8697629113.72477</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2863912422394442</v>
+        <v>0.1692526964247126</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6864528462366449</v>
+        <v>0.2389360920291399</v>
       </c>
       <c r="I80" t="n">
-        <v>3.158377790083203</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.385365996899587</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7850946736673736</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.316527476447884</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5347328999.04871</v>
+        <v>10131061469.96238</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2076964705552211</v>
+        <v>0.1000590049725327</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3990386154094064</v>
+        <v>0.06795301117051203</v>
       </c>
       <c r="I81" t="n">
-        <v>2.898597798691078</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.178669317239505</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.3297470902464759</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-9.773611122169022</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4485653564.053667</v>
+        <v>4439333941.514357</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.255769377553802</v>
+        <v>0.2926604434621126</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5746136541688942</v>
+        <v>0.5438863894830581</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4224221390395225</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.665043207514501</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.5526383627291842</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-13.71781046209819</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>5428467635.742916</v>
+        <v>4921639506.744639</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2108649266807953</v>
+        <v>0.302300385463237</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4106106596602741</v>
+        <v>0.5677074481382369</v>
       </c>
       <c r="I83" t="n">
-        <v>2.987469901009436</v>
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4839456095816488</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.023887553501756</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7276187324382384</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9.528487095263014</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>7562156304.21486</v>
+        <v>7709531792.724921</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1821965963903797</v>
+        <v>0.205554759044567</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3059062946411565</v>
+        <v>0.3286413581884873</v>
       </c>
       <c r="I84" t="n">
-        <v>3.595901986112045</v>
+        <v>9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9820138213633998</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3640702341348281</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.985206937562375</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8498736720994678</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.01226650442698</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5726346585.872993</v>
+        <v>12298333522.20966</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2209376172097559</v>
+        <v>0.1022339488296864</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.447398803761624</v>
+        <v>0.0733274693557311</v>
       </c>
       <c r="I85" t="n">
-        <v>3.301940416905166</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.953606101794491</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7442564316364765</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.931522530935038</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>3941938503.644583</v>
+        <v>12144726803.73258</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3415493313138181</v>
+        <v>0.1270362631398037</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8879048538595321</v>
+        <v>0.1346159484665575</v>
       </c>
       <c r="I86" t="n">
-        <v>3.513866199356637</v>
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.383480104311776</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.593703839050921</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.6236463039333059</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.879222239615197</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>7590956652.479263</v>
+        <v>7965275305.508854</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1432028793953082</v>
+        <v>0.1953375872550085</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1634908718961107</v>
+        <v>0.3033939191000855</v>
       </c>
       <c r="I87" t="n">
-        <v>2.837070958624522</v>
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.273710524239456</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.245800182627864</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5760416686208765</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.275033189789665</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10430190687.60274</v>
+        <v>5572679628.883998</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1127597898471705</v>
+        <v>0.2077582881311013</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05230461416614649</v>
+        <v>0.3340864527349693</v>
       </c>
       <c r="I88" t="n">
-        <v>3.069505687764845</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.1114277387898</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7234179502120508</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.356931265451216</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8606117558.933153</v>
+        <v>6747481872.503411</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1549211361418211</v>
+        <v>0.2243811022553043</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2062890613736759</v>
+        <v>0.3751627403537737</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5047487430582899</v>
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2004881160847399</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.740430060004847</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7331636412130849</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.922842764256849</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>8200631498.639303</v>
+        <v>8826827709.172653</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1456524220358138</v>
+        <v>0.1279006600329144</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1724372529431835</v>
+        <v>0.1367519415139992</v>
       </c>
       <c r="I90" t="n">
-        <v>3.117359896705499</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.379070955651446</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7171166483067872</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.963262010484298</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>4730034580.768943</v>
+        <v>12232456851.25932</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2663673105314124</v>
+        <v>0.09721702471221659</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6133201233526554</v>
+        <v>0.06093025330848807</v>
       </c>
       <c r="I91" t="n">
-        <v>3.288267785779265</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.901197837139009</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7301491387803576</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.701784938468144</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10901377860.82743</v>
+        <v>4096824765.251393</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1319140688781565</v>
+        <v>0.2423215213939184</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1222611342362701</v>
+        <v>0.4194949341107046</v>
       </c>
       <c r="I92" t="n">
-        <v>3.75313724405991</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.339088006028791</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.3127158880332182</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2.915229754635573</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>11069212514.50503</v>
+        <v>3722781096.869782</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138226037623724</v>
+        <v>0.2786299846832715</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05618629318258712</v>
+        <v>0.5092160168303115</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4761232169836278</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.284780002389805</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6961551450031953</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.638322897674101</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7598457150.262794</v>
+        <v>10265518204.75423</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1565058585556242</v>
+        <v>0.130643933725517</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2120768890004662</v>
+        <v>0.1435307876451351</v>
       </c>
       <c r="I94" t="n">
-        <v>3.103687265579598</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.344583522325321</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7608049873805741</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.871516225286161</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7410153016.778462</v>
+        <v>11217448294.02334</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2060827038985901</v>
+        <v>0.1176892039434127</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3931447104850566</v>
+        <v>0.1115186263722242</v>
       </c>
       <c r="I95" t="n">
-        <v>3.985571973200232</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.331166044168446</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7567466251418623</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.8037664586688</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5059766345.35195</v>
+        <v>12246286592.1954</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.308025498337827</v>
+        <v>0.1236299190454094</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7654669019732446</v>
+        <v>0.1261986029614886</v>
       </c>
       <c r="I96" t="n">
-        <v>4.06760775995564</v>
+        <v>5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.3170288227756922</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.833652731085913</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.6598313862218552</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.362974993351191</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>5746598636.337062</v>
+        <v>13125805234.03876</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2730336168039926</v>
+        <v>0.1157449903385877</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6376672464052606</v>
+        <v>0.1067143208781319</v>
       </c>
       <c r="I97" t="n">
-        <v>4.094953022207442</v>
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9848171005202038</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3780133802777241</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.748920735595424</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7792726985341925</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.83653323508842</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5052242577.097638</v>
+        <v>10154737446.25029</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2115320283401639</v>
+        <v>0.1091118284312843</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.413047092300048</v>
+        <v>0.0903232534998487</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2603228420537451</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.990455679923107</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7124514135884856</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.258572591846606</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11163650761.26506</v>
+        <v>15053617431.96867</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.125060779834158</v>
+        <v>0.07255967776093231</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.09723110038444717</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3089270451797379</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.057561822886814</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7089051313255347</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.120540803623879</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>7531242956.874607</v>
+        <v>11005346626.43396</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1547724003427615</v>
+        <v>0.1194813598003023</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2057458386872348</v>
+        <v>0.1159471851520604</v>
       </c>
       <c r="I100" t="n">
-        <v>3.042160425513042</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.213437743703022</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4640174384129389</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.066911024555756</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>8971704136.634951</v>
+        <v>11857634757.45436</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1894828545513784</v>
+        <v>0.1334255601864779</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3325176468330833</v>
+        <v>0.1504044064984041</v>
       </c>
       <c r="I101" t="n">
-        <v>4.436768800354976</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.148805084705952</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5230440788314764</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7.312076491923577</v>
       </c>
     </row>
   </sheetData>
